--- a/trunk/Seagle Sim/1-29-2010 thrust test.xlsx
+++ b/trunk/Seagle Sim/1-29-2010 thrust test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t xml:space="preserve">Right Motor </t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t xml:space="preserve">Left Motor </t>
+  </si>
+  <si>
+    <t>kg (force)</t>
   </si>
 </sst>
 </file>
@@ -66,8 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,7 +236,7 @@
                   <c:v>3.875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.9375</c:v>
+                  <c:v>4.5625</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4.625</c:v>
@@ -403,23 +407,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="59579776"/>
-        <c:axId val="59578240"/>
+        <c:axId val="64198144"/>
+        <c:axId val="64199680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59579776"/>
+        <c:axId val="64198144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59578240"/>
+        <c:crossAx val="64199680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59578240"/>
+        <c:axId val="64199680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,7 +431,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59579776"/>
+        <c:crossAx val="64198144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -440,220 +444,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$30:$C$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Left Motor  lb (force)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$32:$A$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$32:$C$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>4.21875</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.21875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.53125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2562499999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.72499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.328125</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.28125</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.96875</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.71875</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.625</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="71251456"/>
-        <c:axId val="71245184"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="71251456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71245184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="71245184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71251456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -663,16 +454,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -686,36 +477,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1009,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1020,12 +781,12 @@
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1035,8 +796,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1047,8 +811,12 @@
         <f>(5/16)*B3</f>
         <v>4.59375</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1">
+        <f>C3/ 2.20462262</f>
+        <v>2.083689951434863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>4.75</v>
       </c>
@@ -1059,8 +827,12 @@
         <f>(5/16)*B4</f>
         <v>4.53125</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D23" si="0">C4/ 2.20462262</f>
+        <v>2.0553404282860894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4.5</v>
       </c>
@@ -1068,11 +840,15 @@
         <v>13.34</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C23" si="0">(5/16)*B5</f>
+        <f t="shared" ref="C5:C23" si="1">(5/16)*B5</f>
         <v>4.1687500000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8909131940232022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4.25</v>
       </c>
@@ -1080,11 +856,15 @@
         <v>10.6</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3125</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5025247268850033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1092,11 +872,15 @@
         <v>8.5</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.65625</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2048547338228799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>3.75</v>
       </c>
@@ -1104,11 +888,15 @@
         <v>6.35</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.984375</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90009735997356322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>3.5</v>
       </c>
@@ -1116,11 +904,15 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.296875</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58825260533705315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>3.25</v>
       </c>
@@ -1128,11 +920,15 @@
         <v>2.5</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78125</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35436903935967057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1140,11 +936,15 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.328125</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14883499653106164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>2.75</v>
       </c>
@@ -1152,11 +952,15 @@
         <v>0.2</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8349523148773644E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>2.5</v>
       </c>
@@ -1164,11 +968,15 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>2.25</v>
       </c>
@@ -1176,11 +984,15 @@
         <v>0.5</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15625</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0873807871934119E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1188,11 +1000,15 @@
         <v>1.6</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22679618519018915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>1.75</v>
       </c>
@@ -1200,11 +1016,15 @@
         <v>3.3</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.03125</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46776713195476516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>1.5</v>
       </c>
@@ -1212,11 +1032,15 @@
         <v>5.4</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6875</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76543712501688843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>1.25</v>
       </c>
@@ -1224,11 +1048,15 @@
         <v>7.4</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3125</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0489323565046249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1236,11 +1064,15 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.03125</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3749518727155219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>0.75</v>
       </c>
@@ -1248,23 +1080,31 @@
         <v>12.4</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.875</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.757670435223966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>0.5</v>
       </c>
       <c r="B21">
-        <v>15.8</v>
+        <v>14.6</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>4.9375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <f t="shared" si="1"/>
+        <v>4.5625</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0695151898604762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>0.25</v>
       </c>
@@ -1272,11 +1112,15 @@
         <v>14.8</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.625</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0978647130092498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1284,16 +1128,20 @@
         <v>14.6</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5625</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0695151898604762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1303,8 +1151,11 @@
       <c r="C31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1315,8 +1166,12 @@
         <f>(5/16)*B32</f>
         <v>4.21875</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <f>C32/ 2.20462262</f>
+        <v>1.913592812542221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>4.75</v>
       </c>
@@ -1327,8 +1182,12 @@
         <f>(5/16)*B33</f>
         <v>4.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <f t="shared" ref="D33:D52" si="2">C33/ 2.20462262</f>
+        <v>1.9277675741166078</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>4.5</v>
       </c>
@@ -1336,11 +1195,15 @@
         <v>12.8</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C52" si="1">(5/16)*B34</f>
+        <f t="shared" ref="C34:C52" si="3">(5/16)*B34</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>1.8143694815215132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>4.25</v>
       </c>
@@ -1348,11 +1211,15 @@
         <v>10.3</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.21875</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>1.4600004421618427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1360,11 +1227,15 @@
         <v>8.1</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.53125</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>1.1481556875253327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>3.75</v>
       </c>
@@ -1372,11 +1243,15 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.875</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>0.85048569446320932</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>3.5</v>
       </c>
@@ -1384,11 +1259,15 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2562499999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>0.56982541529035025</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>3.25</v>
       </c>
@@ -1396,11 +1275,15 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.72499999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>0.32885446852577427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1408,11 +1291,15 @@
         <v>1.05</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.328125</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>0.14883499653106164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>2.75</v>
       </c>
@@ -1420,11 +1307,15 @@
         <v>0.2</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>2.8349523148773644E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>2.5</v>
       </c>
@@ -1432,11 +1323,15 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>2.25</v>
       </c>
@@ -1444,11 +1339,15 @@
         <v>0.5</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>7.0873807871934119E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1456,11 +1355,15 @@
         <v>1.6</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>0.22679618519018915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>1.75</v>
       </c>
@@ -1468,11 +1371,15 @@
         <v>3.2</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>0.45359237038037831</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>1.5</v>
       </c>
@@ -1480,11 +1387,15 @@
         <v>5.2</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.625</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>0.73708760186811473</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>1.25</v>
       </c>
@@ -1492,11 +1403,15 @@
         <v>7.3</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.28125</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>1.0347575949302381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1504,11 +1419,15 @@
         <v>9.5</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.96875</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>1.3466023495667481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>0.75</v>
       </c>
@@ -1516,11 +1435,15 @@
         <v>11.9</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.71875</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>1.6867966273520318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>0.5</v>
       </c>
@@ -1528,11 +1451,15 @@
         <v>14.4</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>2.0411656667117026</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>0.25</v>
       </c>
@@ -1540,11 +1467,15 @@
         <v>14.8</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.625</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>2.0978647130092498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1552,13 +1483,18 @@
         <v>14.8</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.625</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>2.0978647130092498</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/trunk/Seagle Sim/1-29-2010 thrust test.xlsx
+++ b/trunk/Seagle Sim/1-29-2010 thrust test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t xml:space="preserve">Right Motor </t>
   </si>
@@ -34,6 +34,57 @@
   </si>
   <si>
     <t>kg (force)</t>
+  </si>
+  <si>
+    <t>left voltage</t>
+  </si>
+  <si>
+    <t>right voltage</t>
+  </si>
+  <si>
+    <t>time (s)</t>
+  </si>
+  <si>
+    <t>distance (ft)</t>
+  </si>
+  <si>
+    <t>velocity (ft/s)</t>
+  </si>
+  <si>
+    <t>velocity (m/s)</t>
+  </si>
+  <si>
+    <t>voltage sum</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>average (s)</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>turn rat (deg/s)</t>
+  </si>
+  <si>
+    <t>right-left</t>
+  </si>
+  <si>
+    <t>stopping</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -407,23 +458,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64198144"/>
-        <c:axId val="64199680"/>
+        <c:axId val="71255552"/>
+        <c:axId val="71257088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64198144"/>
+        <c:axId val="71255552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64199680"/>
+        <c:crossAx val="71257088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64199680"/>
+        <c:axId val="71257088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,7 +482,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64198144"/>
+        <c:crossAx val="71255552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -444,7 +495,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -454,16 +505,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -770,23 +821,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -799,8 +860,29 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>5</v>
       </c>
@@ -815,8 +897,29 @@
         <f>C3/ 2.20462262</f>
         <v>2.083689951434863</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3">
+        <v>2.5</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>7.94</v>
+      </c>
+      <c r="J3">
+        <v>39</v>
+      </c>
+      <c r="K3">
+        <v>4.9118387909319896</v>
+      </c>
+      <c r="L3">
+        <v>1.4971284634760704</v>
+      </c>
+      <c r="M3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>4.75</v>
       </c>
@@ -831,8 +934,29 @@
         <f t="shared" ref="D4:D23" si="0">C4/ 2.20462262</f>
         <v>2.0553404282860894</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1.8499999999999996</v>
+      </c>
+      <c r="I4">
+        <v>8.5333333333333332</v>
+      </c>
+      <c r="J4">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>4.5703125</v>
+      </c>
+      <c r="L4">
+        <v>1.3930312500000002</v>
+      </c>
+      <c r="M4">
+        <v>3.8499999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4.5</v>
       </c>
@@ -847,8 +971,29 @@
         <f t="shared" si="0"/>
         <v>1.8909131940232022</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5">
+        <v>1.5</v>
+      </c>
+      <c r="H5">
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="I5">
+        <v>10.066666666666665</v>
+      </c>
+      <c r="J5">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>3.8741721854304645</v>
+      </c>
+      <c r="L5">
+        <v>1.1808476821192055</v>
+      </c>
+      <c r="M5">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>4.25</v>
       </c>
@@ -863,8 +1008,29 @@
         <f t="shared" si="0"/>
         <v>1.5025247268850033</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.99000000000000021</v>
+      </c>
+      <c r="I6">
+        <v>14.24</v>
+      </c>
+      <c r="J6">
+        <v>39</v>
+      </c>
+      <c r="K6">
+        <v>2.73876404494382</v>
+      </c>
+      <c r="L6">
+        <v>0.83477528089887632</v>
+      </c>
+      <c r="M6">
+        <v>1.9900000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>4</v>
       </c>
@@ -879,8 +1045,29 @@
         <f t="shared" si="0"/>
         <v>1.2048547338228799</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>10.72</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>1.2126865671641791</v>
+      </c>
+      <c r="L7">
+        <v>0.36962686567164182</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>3.75</v>
       </c>
@@ -895,8 +1082,23 @@
         <f t="shared" si="0"/>
         <v>0.90009735997356322</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>3.5</v>
       </c>
@@ -911,8 +1113,29 @@
         <f t="shared" si="0"/>
         <v>0.58825260533705315</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="G9">
+        <v>-0.5</v>
+      </c>
+      <c r="H9">
+        <v>-0.5</v>
+      </c>
+      <c r="I9">
+        <v>15.506666666666666</v>
+      </c>
+      <c r="J9">
+        <v>-22</v>
+      </c>
+      <c r="K9">
+        <v>-1.418744625967326</v>
+      </c>
+      <c r="L9">
+        <v>-0.432433361994841</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>3.25</v>
       </c>
@@ -927,8 +1150,29 @@
         <f t="shared" si="0"/>
         <v>0.35436903935967057</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-0.95</v>
+      </c>
+      <c r="I10">
+        <v>8.86</v>
+      </c>
+      <c r="J10">
+        <v>-22</v>
+      </c>
+      <c r="K10">
+        <v>-2.4830699774266369</v>
+      </c>
+      <c r="L10">
+        <v>-0.75683972911963893</v>
+      </c>
+      <c r="M10">
+        <v>-1.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>3</v>
       </c>
@@ -943,8 +1187,29 @@
         <f t="shared" si="0"/>
         <v>0.14883499653106164</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="G11">
+        <v>-1.5</v>
+      </c>
+      <c r="H11">
+        <v>-1.3</v>
+      </c>
+      <c r="I11">
+        <v>6.7333333333333343</v>
+      </c>
+      <c r="J11">
+        <v>-22</v>
+      </c>
+      <c r="K11">
+        <v>-3.2673267326732667</v>
+      </c>
+      <c r="L11">
+        <v>-0.99588118811881177</v>
+      </c>
+      <c r="M11">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>2.75</v>
       </c>
@@ -959,8 +1224,29 @@
         <f t="shared" si="0"/>
         <v>2.8349523148773644E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="G12">
+        <v>-2</v>
+      </c>
+      <c r="H12">
+        <v>-1.7</v>
+      </c>
+      <c r="I12">
+        <v>5.62</v>
+      </c>
+      <c r="J12">
+        <v>-22</v>
+      </c>
+      <c r="K12">
+        <v>-3.9145907473309607</v>
+      </c>
+      <c r="L12">
+        <v>-1.1931672597864769</v>
+      </c>
+      <c r="M12">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>2.5</v>
       </c>
@@ -975,8 +1261,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="G13">
+        <v>-2.5</v>
+      </c>
+      <c r="H13">
+        <v>-1.8</v>
+      </c>
+      <c r="I13">
+        <v>6.16</v>
+      </c>
+      <c r="J13">
+        <v>-22</v>
+      </c>
+      <c r="K13">
+        <v>-3.5714285714285712</v>
+      </c>
+      <c r="L13">
+        <v>-1.0885714285714285</v>
+      </c>
+      <c r="M13">
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>2.25</v>
       </c>
@@ -992,7 +1299,7 @@
         <v>7.0873807871934119E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1008,7 +1315,7 @@
         <v>0.22679618519018915</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>1.75</v>
       </c>
@@ -1024,7 +1331,7 @@
         <v>0.46776713195476516</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>1.5</v>
       </c>
@@ -1040,7 +1347,7 @@
         <v>0.76543712501688843</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>1.25</v>
       </c>
@@ -1055,8 +1362,11 @@
         <f t="shared" si="0"/>
         <v>1.0489323565046249</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1071,8 +1381,26 @@
         <f t="shared" si="0"/>
         <v>1.3749518727155219</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>0.75</v>
       </c>
@@ -1087,8 +1415,26 @@
         <f t="shared" si="0"/>
         <v>1.757670435223966</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>8.9599999999999991</v>
+      </c>
+      <c r="J20">
+        <v>1080</v>
+      </c>
+      <c r="K20">
+        <v>120.53571428571429</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>0.5</v>
       </c>
@@ -1103,8 +1449,26 @@
         <f t="shared" si="0"/>
         <v>2.0695151898604762</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="G21">
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <v>4.5</v>
+      </c>
+      <c r="I21">
+        <v>9.0166666666666657</v>
+      </c>
+      <c r="J21">
+        <v>1080</v>
+      </c>
+      <c r="K21">
+        <v>119.77818853974124</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>0.25</v>
       </c>
@@ -1119,8 +1483,26 @@
         <f t="shared" si="0"/>
         <v>2.0978647130092498</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>10.733333333333334</v>
+      </c>
+      <c r="J22">
+        <v>1080</v>
+      </c>
+      <c r="K22">
+        <v>100.62111801242236</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1135,13 +1517,157 @@
         <f t="shared" si="0"/>
         <v>2.0695151898604762</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="G23">
+        <v>1.5</v>
+      </c>
+      <c r="H23">
+        <v>3.5</v>
+      </c>
+      <c r="I23">
+        <v>14.143333333333333</v>
+      </c>
+      <c r="J23">
+        <v>1080</v>
+      </c>
+      <c r="K23">
+        <v>76.361065283997178</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>26.983333333333334</v>
+      </c>
+      <c r="J24">
+        <v>1080</v>
+      </c>
+      <c r="K24">
+        <v>40.024706609017912</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>28.416666666666668</v>
+      </c>
+      <c r="J26">
+        <v>1080</v>
+      </c>
+      <c r="K26">
+        <v>38.005865102639298</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="G27">
+        <v>3.5</v>
+      </c>
+      <c r="H27">
+        <v>1.5</v>
+      </c>
+      <c r="I27">
+        <v>14.689999999999998</v>
+      </c>
+      <c r="J27">
+        <v>1080</v>
+      </c>
+      <c r="K27">
+        <v>73.519400953029276</v>
+      </c>
+      <c r="L27">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>10.85</v>
+      </c>
+      <c r="J28">
+        <v>1080</v>
+      </c>
+      <c r="K28">
+        <v>99.539170506912441</v>
+      </c>
+      <c r="L28">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="G29">
+        <v>4.5</v>
+      </c>
+      <c r="H29">
+        <v>0.5</v>
+      </c>
+      <c r="I29">
+        <v>9.1233333333333331</v>
+      </c>
+      <c r="J29">
+        <v>1080</v>
+      </c>
+      <c r="K29">
+        <v>118.37778589696748</v>
+      </c>
+      <c r="L29">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>9.0166666666666657</v>
+      </c>
+      <c r="J30">
+        <v>1080</v>
+      </c>
+      <c r="K30">
+        <v>119.77818853974124</v>
+      </c>
+      <c r="L30">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1155,7 +1681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1166,12 +1692,12 @@
         <f>(5/16)*B32</f>
         <v>4.21875</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <f>C32/ 2.20462262</f>
         <v>1.913592812542221</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>4.75</v>
       </c>
@@ -1182,12 +1708,15 @@
         <f>(5/16)*B33</f>
         <v>4.25</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <f t="shared" ref="D33:D52" si="2">C33/ 2.20462262</f>
         <v>1.9277675741166078</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>4.5</v>
       </c>
@@ -1198,12 +1727,21 @@
         <f t="shared" ref="C34:C52" si="3">(5/16)*B34</f>
         <v>4</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <f t="shared" si="2"/>
         <v>1.8143694815215132</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>4.25</v>
       </c>
@@ -1214,12 +1752,21 @@
         <f t="shared" si="3"/>
         <v>3.21875</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <f t="shared" si="2"/>
         <v>1.4600004421618427</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>4.5</v>
+      </c>
+      <c r="I35">
+        <v>11.266666669999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1230,12 +1777,21 @@
         <f t="shared" si="3"/>
         <v>2.53125</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <f t="shared" si="2"/>
         <v>1.1481556875253327</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.7</v>
+      </c>
+      <c r="I36">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>3.75</v>
       </c>
@@ -1246,12 +1802,21 @@
         <f t="shared" si="3"/>
         <v>1.875</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <f t="shared" si="2"/>
         <v>0.85048569446320932</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>8.4933333330000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>3.5</v>
       </c>
@@ -1262,12 +1827,21 @@
         <f t="shared" si="3"/>
         <v>1.2562499999999999</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <f t="shared" si="2"/>
         <v>0.56982541529035025</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>3.25</v>
       </c>
@@ -1278,12 +1852,12 @@
         <f t="shared" si="3"/>
         <v>0.72499999999999998</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <f t="shared" si="2"/>
         <v>0.32885446852577427</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1294,12 +1868,12 @@
         <f t="shared" si="3"/>
         <v>0.328125</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <f t="shared" si="2"/>
         <v>0.14883499653106164</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>2.75</v>
       </c>
@@ -1310,12 +1884,12 @@
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <f t="shared" si="2"/>
         <v>2.8349523148773644E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>2.5</v>
       </c>
@@ -1326,12 +1900,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>2.25</v>
       </c>
@@ -1342,12 +1916,12 @@
         <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <f t="shared" si="2"/>
         <v>7.0873807871934119E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1358,12 +1932,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <f t="shared" si="2"/>
         <v>0.22679618519018915</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>1.75</v>
       </c>
@@ -1374,12 +1948,12 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <f t="shared" si="2"/>
         <v>0.45359237038037831</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>1.5</v>
       </c>
@@ -1390,12 +1964,12 @@
         <f t="shared" si="3"/>
         <v>1.625</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <f t="shared" si="2"/>
         <v>0.73708760186811473</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>1.25</v>
       </c>
@@ -1406,12 +1980,12 @@
         <f t="shared" si="3"/>
         <v>2.28125</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <f t="shared" si="2"/>
         <v>1.0347575949302381</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1422,7 +1996,7 @@
         <f t="shared" si="3"/>
         <v>2.96875</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <f t="shared" si="2"/>
         <v>1.3466023495667481</v>
       </c>
@@ -1438,7 +2012,7 @@
         <f t="shared" si="3"/>
         <v>3.71875</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <f t="shared" si="2"/>
         <v>1.6867966273520318</v>
       </c>
@@ -1454,7 +2028,7 @@
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <f t="shared" si="2"/>
         <v>2.0411656667117026</v>
       </c>
@@ -1470,7 +2044,7 @@
         <f t="shared" si="3"/>
         <v>4.625</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <f t="shared" si="2"/>
         <v>2.0978647130092498</v>
       </c>
@@ -1486,10 +2060,13 @@
         <f t="shared" si="3"/>
         <v>4.625</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <f t="shared" si="2"/>
         <v>2.0978647130092498</v>
       </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="D53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Seagle Sim/1-29-2010 thrust test.xlsx
+++ b/trunk/Seagle Sim/1-29-2010 thrust test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t xml:space="preserve">Right Motor </t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t>left thrust (kg)</t>
+  </si>
+  <si>
+    <t>right thrust (kg)</t>
+  </si>
+  <si>
+    <t>from labview data</t>
+  </si>
+  <si>
+    <t>total drag (kg)</t>
   </si>
 </sst>
 </file>
@@ -120,9 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -836,18 +851,23 @@
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -881,8 +901,17 @@
       <c r="M2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>5</v>
       </c>
@@ -898,10 +927,10 @@
         <v>2.083689951434863</v>
       </c>
       <c r="G3">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="I3">
         <v>7.94</v>
@@ -918,8 +947,18 @@
       <c r="M3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.91</v>
+      </c>
+      <c r="O3">
+        <v>1.89</v>
+      </c>
+      <c r="P3">
+        <f>N3+O3</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>4.75</v>
       </c>
@@ -935,10 +974,10 @@
         <v>2.0553404282860894</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H4">
-        <v>1.8499999999999996</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="I4">
         <v>8.5333333333333332</v>
@@ -955,8 +994,18 @@
       <c r="M4">
         <v>3.8499999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.81</v>
+      </c>
+      <c r="O4">
+        <v>1.66</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P13" si="1">N4+O4</f>
+        <v>3.4699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>4.5</v>
       </c>
@@ -964,7 +1013,7 @@
         <v>13.34</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C23" si="1">(5/16)*B5</f>
+        <f t="shared" ref="C5:C23" si="2">(5/16)*B5</f>
         <v>4.1687500000000002</v>
       </c>
       <c r="D5" s="1">
@@ -972,10 +1021,10 @@
         <v>1.8909131940232022</v>
       </c>
       <c r="G5">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>1.4500000000000002</v>
+        <v>3.95</v>
       </c>
       <c r="I5">
         <v>10.066666666666665</v>
@@ -992,8 +1041,18 @@
       <c r="M5">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>4.25</v>
       </c>
@@ -1001,7 +1060,7 @@
         <v>10.6</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3125</v>
       </c>
       <c r="D6" s="1">
@@ -1009,10 +1068,10 @@
         <v>1.5025247268850033</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H6">
-        <v>0.99000000000000021</v>
+        <v>3.49</v>
       </c>
       <c r="I6">
         <v>14.24</v>
@@ -1029,8 +1088,18 @@
       <c r="M6">
         <v>1.9900000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1038,7 +1107,7 @@
         <v>8.5</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="D7" s="1">
@@ -1046,10 +1115,10 @@
         <v>1.2048547338228799</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>10.72</v>
@@ -1066,8 +1135,18 @@
       <c r="M7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.15</v>
+      </c>
+      <c r="O7">
+        <v>0.15</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>3.75</v>
       </c>
@@ -1075,7 +1154,7 @@
         <v>6.35</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.984375</v>
       </c>
       <c r="D8" s="1">
@@ -1083,10 +1162,10 @@
         <v>0.90009735997356322</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1097,8 +1176,18 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>3.5</v>
       </c>
@@ -1106,7 +1195,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.296875</v>
       </c>
       <c r="D9" s="1">
@@ -1114,10 +1203,10 @@
         <v>0.58825260533705315</v>
       </c>
       <c r="G9">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>15.506666666666666</v>
@@ -1134,8 +1223,18 @@
       <c r="M9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>-0.23</v>
+      </c>
+      <c r="O9">
+        <v>-0.23</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>3.25</v>
       </c>
@@ -1143,7 +1242,7 @@
         <v>2.5</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78125</v>
       </c>
       <c r="D10" s="1">
@@ -1151,10 +1250,10 @@
         <v>0.35436903935967057</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="H10">
-        <v>-0.95</v>
+        <v>1.55</v>
       </c>
       <c r="I10">
         <v>8.86</v>
@@ -1171,8 +1270,18 @@
       <c r="M10">
         <v>-1.95</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>-0.74</v>
+      </c>
+      <c r="O10">
+        <v>-0.71</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>-1.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1180,7 +1289,7 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.328125</v>
       </c>
       <c r="D11" s="1">
@@ -1188,10 +1297,10 @@
         <v>0.14883499653106164</v>
       </c>
       <c r="G11">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>-1.3</v>
+        <v>1.2</v>
       </c>
       <c r="I11">
         <v>6.7333333333333343</v>
@@ -1208,8 +1317,18 @@
       <c r="M11">
         <v>-2.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>-1.35</v>
+      </c>
+      <c r="O11">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>-2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>2.75</v>
       </c>
@@ -1217,7 +1336,7 @@
         <v>0.2</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="D12" s="1">
@@ -1225,10 +1344,10 @@
         <v>2.8349523148773644E-2</v>
       </c>
       <c r="G12">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
-        <v>-1.7</v>
+        <v>0.8</v>
       </c>
       <c r="I12">
         <v>5.62</v>
@@ -1245,8 +1364,18 @@
       <c r="M12">
         <v>-3.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>-2.04</v>
+      </c>
+      <c r="O12">
+        <v>-1.68</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>-3.7199999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>2.5</v>
       </c>
@@ -1254,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D13" s="1">
@@ -1262,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-1.8</v>
+        <v>0.7</v>
       </c>
       <c r="I13">
         <v>6.16</v>
@@ -1282,8 +1411,18 @@
       <c r="M13">
         <v>-4.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>-2.1</v>
+      </c>
+      <c r="O13">
+        <v>-1.82</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>-3.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>2.25</v>
       </c>
@@ -1291,7 +1430,7 @@
         <v>0.5</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
       <c r="D14" s="1">
@@ -1299,7 +1438,7 @@
         <v>7.0873807871934119E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1307,7 +1446,7 @@
         <v>1.6</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="D15" s="1">
@@ -1315,7 +1454,7 @@
         <v>0.22679618519018915</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>1.75</v>
       </c>
@@ -1323,7 +1462,7 @@
         <v>3.3</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.03125</v>
       </c>
       <c r="D16" s="1">
@@ -1331,7 +1470,7 @@
         <v>0.46776713195476516</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>1.5</v>
       </c>
@@ -1339,7 +1478,7 @@
         <v>5.4</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6875</v>
       </c>
       <c r="D17" s="1">
@@ -1347,7 +1486,7 @@
         <v>0.76543712501688843</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>1.25</v>
       </c>
@@ -1355,7 +1494,7 @@
         <v>7.4</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3125</v>
       </c>
       <c r="D18" s="1">
@@ -1365,8 +1504,12 @@
       <c r="G18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1374,7 +1517,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.03125</v>
       </c>
       <c r="D19" s="1">
@@ -1399,8 +1542,17 @@
       <c r="L19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>0.75</v>
       </c>
@@ -1408,7 +1560,7 @@
         <v>12.4</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.875</v>
       </c>
       <c r="D20" s="1">
@@ -1425,16 +1577,27 @@
         <v>8.9599999999999991</v>
       </c>
       <c r="J20">
-        <v>1080</v>
+        <v>-1080</v>
       </c>
       <c r="K20">
-        <v>120.53571428571429</v>
+        <f>J20/I20</f>
+        <v>-120.53571428571429</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>-2.1</v>
+      </c>
+      <c r="N20">
+        <v>2.08</v>
+      </c>
+      <c r="O20">
+        <f>N20-M20</f>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>0.5</v>
       </c>
@@ -1442,7 +1605,7 @@
         <v>14.6</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5625</v>
       </c>
       <c r="D21" s="1">
@@ -1459,16 +1622,27 @@
         <v>9.0166666666666657</v>
       </c>
       <c r="J21">
-        <v>1080</v>
+        <v>-1080</v>
       </c>
       <c r="K21">
-        <v>119.77818853974124</v>
+        <f t="shared" ref="K21:K24" si="3">J21/I21</f>
+        <v>-119.77818853974124</v>
       </c>
       <c r="L21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>-2.04</v>
+      </c>
+      <c r="N21">
+        <v>1.89</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ref="O21:O30" si="4">N21-M21</f>
+        <v>3.9299999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>0.25</v>
       </c>
@@ -1476,7 +1650,7 @@
         <v>14.8</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.625</v>
       </c>
       <c r="D22" s="1">
@@ -1493,16 +1667,27 @@
         <v>10.733333333333334</v>
       </c>
       <c r="J22">
-        <v>1080</v>
+        <v>-1080</v>
       </c>
       <c r="K22">
-        <v>100.62111801242236</v>
+        <f t="shared" si="3"/>
+        <v>-100.62111801242236</v>
       </c>
       <c r="L22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>-1.35</v>
+      </c>
+      <c r="N22">
+        <v>1.2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1510,7 +1695,7 @@
         <v>14.6</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5625</v>
       </c>
       <c r="D23" s="1">
@@ -1527,16 +1712,27 @@
         <v>14.143333333333333</v>
       </c>
       <c r="J23">
-        <v>1080</v>
+        <v>-1080</v>
       </c>
       <c r="K23">
-        <v>76.361065283997178</v>
+        <f t="shared" si="3"/>
+        <v>-76.361065283997178</v>
       </c>
       <c r="L23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>-0.74</v>
+      </c>
+      <c r="N23">
+        <v>0.59</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="G24">
         <v>2</v>
       </c>
@@ -1547,24 +1743,45 @@
         <v>26.983333333333334</v>
       </c>
       <c r="J24">
-        <v>1080</v>
+        <v>-1080</v>
       </c>
       <c r="K24">
-        <v>40.024706609017912</v>
+        <f t="shared" si="3"/>
+        <v>-40.024706609017912</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>-0.23</v>
+      </c>
+      <c r="N24">
+        <v>0.15</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="G26">
         <v>3</v>
       </c>
@@ -1583,8 +1800,18 @@
       <c r="L26">
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>0.15</v>
+      </c>
+      <c r="N26">
+        <v>-0.23</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="G27">
         <v>3.5</v>
       </c>
@@ -1603,8 +1830,18 @@
       <c r="L27">
         <v>-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N27">
+        <v>-0.77</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>-1.3399999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="G28">
         <v>4</v>
       </c>
@@ -1623,8 +1860,18 @@
       <c r="L28">
         <v>-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N28">
+        <v>-1.37</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>-2.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="G29">
         <v>4.5</v>
       </c>
@@ -1643,8 +1890,18 @@
       <c r="L29">
         <v>-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>1.81</v>
+      </c>
+      <c r="N29">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>-3.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1666,8 +1923,18 @@
       <c r="L30">
         <v>-5</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>1.91</v>
+      </c>
+      <c r="N30">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>-3.9799999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1681,7 +1948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1709,7 +1976,7 @@
         <v>4.25</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" ref="D33:D52" si="2">C33/ 2.20462262</f>
+        <f t="shared" ref="D33:D52" si="5">C33/ 2.20462262</f>
         <v>1.9277675741166078</v>
       </c>
       <c r="G33" t="s">
@@ -1724,11 +1991,11 @@
         <v>12.8</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C52" si="3">(5/16)*B34</f>
+        <f t="shared" ref="C34:C52" si="6">(5/16)*B34</f>
         <v>4</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.8143694815215132</v>
       </c>
       <c r="G34" t="s">
@@ -1749,11 +2016,11 @@
         <v>10.3</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.21875</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.4600004421618427</v>
       </c>
       <c r="G35">
@@ -1774,11 +2041,11 @@
         <v>8.1</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.53125</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1481556875253327</v>
       </c>
       <c r="G36">
@@ -1799,11 +2066,11 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.875</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.85048569446320932</v>
       </c>
       <c r="G37">
@@ -1824,11 +2091,11 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2562499999999999</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.56982541529035025</v>
       </c>
       <c r="G38">
@@ -1849,11 +2116,11 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.72499999999999998</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.32885446852577427</v>
       </c>
     </row>
@@ -1865,11 +2132,11 @@
         <v>1.05</v>
       </c>
       <c r="C40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.328125</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.14883499653106164</v>
       </c>
     </row>
@@ -1881,11 +2148,11 @@
         <v>0.2</v>
       </c>
       <c r="C41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.8349523148773644E-2</v>
       </c>
     </row>
@@ -1897,11 +2164,11 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1913,11 +2180,11 @@
         <v>0.5</v>
       </c>
       <c r="C43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15625</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.0873807871934119E-2</v>
       </c>
     </row>
@@ -1929,11 +2196,11 @@
         <v>1.6</v>
       </c>
       <c r="C44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.22679618519018915</v>
       </c>
     </row>
@@ -1945,11 +2212,11 @@
         <v>3.2</v>
       </c>
       <c r="C45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.45359237038037831</v>
       </c>
     </row>
@@ -1961,11 +2228,11 @@
         <v>5.2</v>
       </c>
       <c r="C46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.625</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.73708760186811473</v>
       </c>
     </row>
@@ -1977,11 +2244,11 @@
         <v>7.3</v>
       </c>
       <c r="C47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.28125</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0347575949302381</v>
       </c>
     </row>
@@ -1993,11 +2260,11 @@
         <v>9.5</v>
       </c>
       <c r="C48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.96875</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.3466023495667481</v>
       </c>
     </row>
@@ -2009,11 +2276,11 @@
         <v>11.9</v>
       </c>
       <c r="C49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.71875</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.6867966273520318</v>
       </c>
     </row>
@@ -2025,11 +2292,11 @@
         <v>14.4</v>
       </c>
       <c r="C50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.0411656667117026</v>
       </c>
     </row>
@@ -2041,11 +2308,11 @@
         <v>14.8</v>
       </c>
       <c r="C51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.625</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.0978647130092498</v>
       </c>
     </row>
@@ -2057,11 +2324,11 @@
         <v>14.8</v>
       </c>
       <c r="C52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.625</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.0978647130092498</v>
       </c>
     </row>
@@ -2069,6 +2336,10 @@
       <c r="D53" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="M18:N18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/trunk/Seagle Sim/1-29-2010 thrust test.xlsx
+++ b/trunk/Seagle Sim/1-29-2010 thrust test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t xml:space="preserve">Right Motor </t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>total drag (kg)</t>
+  </si>
+  <si>
+    <t>thrust diff over 2</t>
+  </si>
+  <si>
+    <t>left v</t>
+  </si>
+  <si>
+    <t>thrust diff / 2</t>
+  </si>
+  <si>
+    <t>left thrust</t>
+  </si>
+  <si>
+    <t>turn rate</t>
   </si>
 </sst>
 </file>
@@ -473,23 +488,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="71255552"/>
-        <c:axId val="71257088"/>
+        <c:axId val="116286976"/>
+        <c:axId val="116288512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71255552"/>
+        <c:axId val="116286976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71257088"/>
+        <c:crossAx val="116288512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71257088"/>
+        <c:axId val="116288512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,7 +512,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71255552"/>
+        <c:crossAx val="116286976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -510,7 +525,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -520,16 +535,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -836,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1470,7 +1485,7 @@
         <v>0.46776713195476516</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>1.5</v>
       </c>
@@ -1486,7 +1501,7 @@
         <v>0.76543712501688843</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>1.25</v>
       </c>
@@ -1509,7 +1524,7 @@
       </c>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1551,8 +1566,11 @@
       <c r="O19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>0.75</v>
       </c>
@@ -1596,8 +1614,12 @@
         <f>N20-M20</f>
         <v>4.18</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <f>O20/2</f>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>0.5</v>
       </c>
@@ -1641,8 +1663,12 @@
         <f t="shared" ref="O21:O30" si="4">N21-M21</f>
         <v>3.9299999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <f t="shared" ref="P21:P30" si="5">O21/2</f>
+        <v>1.9649999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>0.25</v>
       </c>
@@ -1686,8 +1712,12 @@
         <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>1.2749999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1731,8 +1761,12 @@
         <f t="shared" si="4"/>
         <v>1.33</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="G24">
         <v>2</v>
       </c>
@@ -1762,8 +1796,12 @@
         <f t="shared" si="4"/>
         <v>0.38</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="K25">
         <v>0</v>
       </c>
@@ -1780,8 +1818,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="G26">
         <v>3</v>
       </c>
@@ -1810,8 +1852,12 @@
         <f t="shared" si="4"/>
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="G27">
         <v>3.5</v>
       </c>
@@ -1840,8 +1886,12 @@
         <f t="shared" si="4"/>
         <v>-1.3399999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>-0.66999999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="G28">
         <v>4</v>
       </c>
@@ -1870,8 +1920,12 @@
         <f t="shared" si="4"/>
         <v>-2.52</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <f t="shared" si="5"/>
+        <v>-1.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="G29">
         <v>4.5</v>
       </c>
@@ -1900,8 +1954,12 @@
         <f t="shared" si="4"/>
         <v>-3.88</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <f t="shared" si="5"/>
+        <v>-1.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1933,8 +1991,12 @@
         <f t="shared" si="4"/>
         <v>-3.9799999999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30">
+        <f t="shared" si="5"/>
+        <v>-1.9899999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1948,7 +2010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1963,8 +2025,23 @@
         <f>C32/ 2.20462262</f>
         <v>1.913592812542221</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>4.75</v>
       </c>
@@ -1976,14 +2053,27 @@
         <v>4.25</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" ref="D33:D52" si="5">C33/ 2.20462262</f>
+        <f t="shared" ref="D33:D52" si="6">C33/ 2.20462262</f>
         <v>1.9277675741166078</v>
       </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="G33">
+        <v>-120.53571428571429</v>
+      </c>
+      <c r="H33">
+        <v>2.09</v>
+      </c>
+      <c r="I33">
+        <f>-H33</f>
+        <v>-2.09</v>
+      </c>
+      <c r="J33">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="K33">
+        <v>-120.53571428571429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>4.5</v>
       </c>
@@ -1991,24 +2081,31 @@
         <v>12.8</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C52" si="6">(5/16)*B34</f>
+        <f t="shared" ref="C34:C52" si="7">(5/16)*B34</f>
         <v>4</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8143694815215132</v>
       </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="G34">
+        <v>-119.77818853974124</v>
+      </c>
+      <c r="H34">
+        <v>1.9649999999999999</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I43" si="8">-H34</f>
+        <v>-1.9649999999999999</v>
+      </c>
+      <c r="J34">
+        <v>0.55359999999999998</v>
+      </c>
+      <c r="K34">
+        <v>-119.77818853974124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>4.25</v>
       </c>
@@ -2016,24 +2113,31 @@
         <v>10.3</v>
       </c>
       <c r="C35">
+        <f t="shared" si="7"/>
+        <v>3.21875</v>
+      </c>
+      <c r="D35" s="1">
         <f t="shared" si="6"/>
-        <v>3.21875</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="5"/>
         <v>1.4600004421618427</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>-100.62111801242236</v>
       </c>
       <c r="H35">
-        <v>4.5</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="I35">
-        <v>11.266666669999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <f t="shared" si="8"/>
+        <v>-1.2749999999999999</v>
+      </c>
+      <c r="J35">
+        <v>1.0586</v>
+      </c>
+      <c r="K35">
+        <v>-100.62111801242236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2041,24 +2145,31 @@
         <v>8.1</v>
       </c>
       <c r="C36">
+        <f t="shared" si="7"/>
+        <v>2.53125</v>
+      </c>
+      <c r="D36" s="1">
         <f t="shared" si="6"/>
-        <v>2.53125</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="5"/>
         <v>1.1481556875253327</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>-76.361065283997178</v>
       </c>
       <c r="H36">
-        <v>0.7</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="I36">
-        <v>10.92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <f t="shared" si="8"/>
+        <v>-0.66500000000000004</v>
+      </c>
+      <c r="J36">
+        <v>1.5647</v>
+      </c>
+      <c r="K36">
+        <v>-76.361065283997178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>3.75</v>
       </c>
@@ -2066,24 +2177,31 @@
         <v>6</v>
       </c>
       <c r="C37">
+        <f t="shared" si="7"/>
+        <v>1.875</v>
+      </c>
+      <c r="D37" s="1">
         <f t="shared" si="6"/>
-        <v>1.875</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="5"/>
         <v>0.85048569446320932</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>-40.024706609017912</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>0.19</v>
       </c>
       <c r="I37">
-        <v>8.4933333330000007</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <f t="shared" si="8"/>
+        <v>-0.19</v>
+      </c>
+      <c r="J37">
+        <v>2.0625</v>
+      </c>
+      <c r="K37">
+        <v>-40.024706609017912</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>3.5</v>
       </c>
@@ -2091,24 +2209,31 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C38">
+        <f t="shared" si="7"/>
+        <v>1.2562499999999999</v>
+      </c>
+      <c r="D38" s="1">
         <f t="shared" si="6"/>
-        <v>1.2562499999999999</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="5"/>
         <v>0.56982541529035025</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>2.5</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>3.25</v>
       </c>
@@ -2116,15 +2241,31 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C39">
+        <f t="shared" si="7"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D39" s="1">
         <f t="shared" si="6"/>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="5"/>
         <v>0.32885446852577427</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="G39">
+        <v>38.005865102639298</v>
+      </c>
+      <c r="H39">
+        <v>-0.19</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="8"/>
+        <v>0.19</v>
+      </c>
+      <c r="J39">
+        <v>3.0556000000000001</v>
+      </c>
+      <c r="K39">
+        <v>38.005865102639298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2132,15 +2273,31 @@
         <v>1.05</v>
       </c>
       <c r="C40">
+        <f t="shared" si="7"/>
+        <v>0.328125</v>
+      </c>
+      <c r="D40" s="1">
         <f t="shared" si="6"/>
-        <v>0.328125</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="5"/>
         <v>0.14883499653106164</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="G40">
+        <v>73.519400953029276</v>
+      </c>
+      <c r="H40">
+        <v>-0.66999999999999993</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="8"/>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="J40">
+        <v>3.5893000000000002</v>
+      </c>
+      <c r="K40">
+        <v>73.519400953029276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>2.75</v>
       </c>
@@ -2148,15 +2305,31 @@
         <v>0.2</v>
       </c>
       <c r="C41">
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D41" s="1">
         <f t="shared" si="6"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="5"/>
         <v>2.8349523148773644E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="G41">
+        <v>99.539170506912441</v>
+      </c>
+      <c r="H41">
+        <v>-1.26</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="8"/>
+        <v>1.26</v>
+      </c>
+      <c r="J41">
+        <v>4.0887000000000002</v>
+      </c>
+      <c r="K41">
+        <v>99.539170506912441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>2.5</v>
       </c>
@@ -2164,15 +2337,31 @@
         <v>0</v>
       </c>
       <c r="C42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D42" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="G42">
+        <v>118.37778589696748</v>
+      </c>
+      <c r="H42">
+        <v>-1.94</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="8"/>
+        <v>1.94</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>118.37778589696748</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>2.25</v>
       </c>
@@ -2180,15 +2369,25 @@
         <v>0.5</v>
       </c>
       <c r="C43">
+        <f t="shared" si="7"/>
+        <v>0.15625</v>
+      </c>
+      <c r="D43" s="1">
         <f t="shared" si="6"/>
-        <v>0.15625</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="5"/>
         <v>7.0873807871934119E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="G43">
+        <v>119.77818853974124</v>
+      </c>
+      <c r="H43">
+        <v>-1.9899999999999998</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="8"/>
+        <v>1.9899999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2196,15 +2395,15 @@
         <v>1.6</v>
       </c>
       <c r="C44">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="1">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="5"/>
         <v>0.22679618519018915</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>1.75</v>
       </c>
@@ -2212,15 +2411,15 @@
         <v>3.2</v>
       </c>
       <c r="C45">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="5"/>
         <v>0.45359237038037831</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>1.5</v>
       </c>
@@ -2228,15 +2427,15 @@
         <v>5.2</v>
       </c>
       <c r="C46">
+        <f t="shared" si="7"/>
+        <v>1.625</v>
+      </c>
+      <c r="D46" s="1">
         <f t="shared" si="6"/>
-        <v>1.625</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="5"/>
         <v>0.73708760186811473</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>1.25</v>
       </c>
@@ -2244,15 +2443,15 @@
         <v>7.3</v>
       </c>
       <c r="C47">
+        <f t="shared" si="7"/>
+        <v>2.28125</v>
+      </c>
+      <c r="D47" s="1">
         <f t="shared" si="6"/>
-        <v>2.28125</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="5"/>
         <v>1.0347575949302381</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2260,11 +2459,11 @@
         <v>9.5</v>
       </c>
       <c r="C48">
+        <f t="shared" si="7"/>
+        <v>2.96875</v>
+      </c>
+      <c r="D48" s="1">
         <f t="shared" si="6"/>
-        <v>2.96875</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="5"/>
         <v>1.3466023495667481</v>
       </c>
     </row>
@@ -2276,11 +2475,11 @@
         <v>11.9</v>
       </c>
       <c r="C49">
+        <f t="shared" si="7"/>
+        <v>3.71875</v>
+      </c>
+      <c r="D49" s="1">
         <f t="shared" si="6"/>
-        <v>3.71875</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="5"/>
         <v>1.6867966273520318</v>
       </c>
     </row>
@@ -2292,11 +2491,11 @@
         <v>14.4</v>
       </c>
       <c r="C50">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="D50" s="1">
         <f t="shared" si="6"/>
-        <v>4.5</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="5"/>
         <v>2.0411656667117026</v>
       </c>
     </row>
@@ -2308,11 +2507,11 @@
         <v>14.8</v>
       </c>
       <c r="C51">
+        <f t="shared" si="7"/>
+        <v>4.625</v>
+      </c>
+      <c r="D51" s="1">
         <f t="shared" si="6"/>
-        <v>4.625</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="5"/>
         <v>2.0978647130092498</v>
       </c>
     </row>
@@ -2324,16 +2523,76 @@
         <v>14.8</v>
       </c>
       <c r="C52">
+        <f t="shared" si="7"/>
+        <v>4.625</v>
+      </c>
+      <c r="D52" s="1">
         <f t="shared" si="6"/>
-        <v>4.625</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="5"/>
         <v>2.0978647130092498</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>4.5</v>
+      </c>
+      <c r="D56">
+        <v>11.266666669999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0.7</v>
+      </c>
+      <c r="D57">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>8.4933333330000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>5.4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
